--- a/Server/婚礼.xlsx
+++ b/Server/婚礼.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>婚礼筹备进度</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>待议</t>
+  </si>
+  <si>
+    <t>红包</t>
+  </si>
+  <si>
+    <t>腊月(待定)</t>
+  </si>
+  <si>
+    <t>拿到人员名单，包红包</t>
   </si>
   <si>
     <t>住宿</t>
@@ -1028,7 +1037,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1128,18 +1137,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Server/婚礼.xlsx
+++ b/Server/婚礼.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>婚礼筹备进度</t>
   </si>
@@ -95,6 +95,51 @@
   </si>
   <si>
     <t>拿到人员名单，包红包</t>
+  </si>
+  <si>
+    <t>上台交换戒指</t>
+  </si>
+  <si>
+    <t>伴郎伴娘</t>
+  </si>
+  <si>
+    <t>跟拍</t>
+  </si>
+  <si>
+    <t>照片+视频</t>
+  </si>
+  <si>
+    <t>去三桃订亲</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>具体礼节待沟通：红包金额及个数待定，购买物品及数量待定，去三桃人数待定</t>
+  </si>
+  <si>
+    <t>酒店</t>
+  </si>
+  <si>
+    <t>老扎西</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>桌数及宴请名单未完成</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>已商定场所，具体购买牌及大贰数量待定</t>
+  </si>
+  <si>
+    <t>购买物资</t>
+  </si>
+  <si>
+    <t>各种需要购买的东西</t>
   </si>
   <si>
     <t>住宿</t>
@@ -1037,7 +1082,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1151,18 +1196,110 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Server/婚礼.xlsx
+++ b/Server/婚礼.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
